--- a/Hardware/hoiquy.xlsx
+++ b/Hardware/hoiquy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA2\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{555B6831-FB69-4ED1-870A-CAD4F59F89AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525F573A-37BC-44D6-8D1A-1C4462F78D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC56F3EF-E956-4174-8D52-ACB651BE91CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC56F3EF-E956-4174-8D52-ACB651BE91CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Time</t>
   </si>
@@ -44,16 +44,10 @@
     <t>Temp</t>
   </si>
   <si>
-    <t>Temp_S</t>
-  </si>
-  <si>
     <t>Raw</t>
   </si>
   <si>
     <t>Humi</t>
-  </si>
-  <si>
-    <t>Humi_S</t>
   </si>
 </sst>
 </file>
@@ -90,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,6 +102,2104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="vi-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Humi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.6500874890638665E-2"/>
+                  <c:y val="0.23981116943715369"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="vi-VN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.95030000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96349999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96530000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9677</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94409999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90969999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90410000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FE4-43C0-963A-B0AE3C0D2739}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146629104"/>
+        <c:axId val="263647024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146629104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="263647024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="263647024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146629104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="vi-VN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="vi-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0985345581802272E-2"/>
+                  <c:y val="0.25628353747448235"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="vi-VN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.38228571428571434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38057142857142856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37942857142857145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37828571428571428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37828571428571428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37828571428571428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37828571428571428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37885714285714284</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38228571428571434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38571428571428573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39028571428571429</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43675000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42959999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.39456999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.49</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F79-44AE-8444-3736DA764878}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146619024"/>
+        <c:axId val="263647520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146619024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.48000000000000004"/>
+          <c:min val="0.37000000000000005"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="263647520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="263647520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146619024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="vi-VN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>458282</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AB5199-D97E-C84A-C93B-AA944D8E2133}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476248</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>997323</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{186BBB49-FF6D-F954-0751-4FE864E2F396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,34 +2499,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7BAFB5-EBA9-4EAC-844D-FE00FDE0DAD3}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -442,32 +2535,20 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <f>(C2+45)/175</f>
+        <v>0.38228571428571434</v>
+      </c>
+      <c r="C2">
         <v>21.9</v>
       </c>
-      <c r="C2">
-        <v>22.09</v>
-      </c>
-      <c r="D2">
-        <f>(C2+45)/175</f>
-        <v>0.38337142857142859</v>
-      </c>
-      <c r="F2">
-        <f>(-45)+175*D2</f>
-        <v>22.090000000000003</v>
-      </c>
-      <c r="H2">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0.95030000000000003</v>
+      </c>
+      <c r="L2">
         <v>94</v>
-      </c>
-      <c r="I2">
-        <v>95.03</v>
-      </c>
-      <c r="J2">
-        <f>(I2+49)/315</f>
-        <v>0.45723809523809522</v>
-      </c>
-      <c r="L2">
-        <f>(-49)+J2*315</f>
-        <v>95.03</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -475,287 +2556,355 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <f>(C3+45)/175</f>
+        <v>0.38057142857142856</v>
+      </c>
+      <c r="C3">
         <v>21.6</v>
       </c>
-      <c r="C3">
-        <v>21.23</v>
-      </c>
-      <c r="D3">
-        <f>(C3+45)/175</f>
-        <v>0.37845714285714288</v>
-      </c>
-      <c r="F3">
-        <f>(-45)+175*D3</f>
-        <v>21.230000000000004</v>
-      </c>
-      <c r="H3">
-        <v>95</v>
-      </c>
-      <c r="I3">
-        <v>96.19</v>
-      </c>
       <c r="J3">
-        <f>(I3+49)/315</f>
-        <v>0.4609206349206349</v>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0.96189999999999998</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L15" si="0">(-49)+J3*315</f>
-        <v>96.19</v>
+        <v>96.13</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D15" si="1">(C4+45)/175</f>
-        <v>0.25714285714285712</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F15" si="2">(-45)+175*D4</f>
-        <v>0</v>
+      <c r="B4">
+        <f>(C4+45)/175</f>
+        <v>0.37942857142857145</v>
+      </c>
+      <c r="C4">
+        <v>21.4</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J15" si="3">(I4+49)/315</f>
-        <v>0.15555555555555556</v>
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>0.96349999999999991</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>0.25714285714285712</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="B5">
+        <f>(C5+45)/175</f>
+        <v>0.37828571428571428</v>
+      </c>
+      <c r="C5">
+        <v>21.2</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
-        <v>0.15555555555555556</v>
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>0.96799999999999997</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96.69</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>0.25714285714285712</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="B6">
+        <f>(C6+45)/175</f>
+        <v>0.37828571428571428</v>
+      </c>
+      <c r="C6">
+        <v>21.2</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
-        <v>0.15555555555555556</v>
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>0.96530000000000005</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96.03</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>0.25714285714285712</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="B7">
+        <f>(C7+45)/175</f>
+        <v>0.37828571428571428</v>
+      </c>
+      <c r="C7">
+        <v>21.2</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
-        <v>0.15555555555555556</v>
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>0.9677</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96.65</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>0.25714285714285712</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="B8">
+        <f>(C8+45)/175</f>
+        <v>0.37828571428571428</v>
+      </c>
+      <c r="C8">
+        <v>21.2</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
-        <v>0.15555555555555556</v>
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>0.96609999999999996</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96.47</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>0.25714285714285712</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="B9">
+        <f>(C9+45)/175</f>
+        <v>0.37885714285714284</v>
+      </c>
+      <c r="C9">
+        <v>21.3</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
-        <v>0.15555555555555556</v>
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>0.94409999999999994</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>0.25714285714285712</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="B10">
+        <f>(C10+45)/175</f>
+        <v>0.38228571428571434</v>
+      </c>
+      <c r="C10">
+        <v>21.9</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
-        <v>0.15555555555555556</v>
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>0.90969999999999995</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90.12</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>0.25714285714285712</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="B11">
+        <f>(C11+45)/175</f>
+        <v>0.38571428571428573</v>
+      </c>
+      <c r="C11">
+        <v>22.5</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
-        <v>0.15555555555555556</v>
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>0.87560000000000004</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>0.25714285714285712</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="B12">
+        <f>(C12+45)/175</f>
+        <v>0.39028571428571429</v>
+      </c>
+      <c r="C12">
+        <v>23.3</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
-        <v>0.15555555555555556</v>
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>0.87519999999999998</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87.62</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>0.25714285714285712</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="B13">
+        <v>0.38769999999999999</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
-        <v>0.15555555555555556</v>
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>0.90410000000000001</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>0.25714285714285712</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>0.15555555555555556</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B14">
+        <v>0.43675000000000003</v>
+      </c>
+      <c r="C14">
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>0.25714285714285712</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>0.15555555555555556</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B15">
+        <v>0.42959999999999998</v>
+      </c>
+      <c r="C15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.42</v>
+      </c>
+      <c r="C16">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.4</v>
+      </c>
+      <c r="C17">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="C18">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C19">
+        <v>34.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="C20">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="C21">
+        <v>30.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.437</v>
+      </c>
+      <c r="C22">
+        <v>31.65</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.39456999999999998</v>
+      </c>
+      <c r="C23">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.3962</v>
+      </c>
+      <c r="C24">
+        <v>24.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>